--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -11,13 +11,224 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+  <si>
+    <t>$HEAD</t>
+  </si>
+  <si>
+    <t>$KEY</t>
+  </si>
+  <si>
+    <t>$VALUE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalMagickPower</t>
+  </si>
+  <si>
+    <t>元素魔法</t>
+  </si>
+  <si>
+    <t>EnhancedMagickPower</t>
+  </si>
+  <si>
+    <t>强化魔法</t>
+  </si>
+  <si>
+    <t>地魔法</t>
+  </si>
+  <si>
+    <t>水魔法</t>
+  </si>
+  <si>
+    <t>火魔法</t>
+  </si>
+  <si>
+    <t>风魔法</t>
+  </si>
+  <si>
+    <t>地元素</t>
+  </si>
+  <si>
+    <t>火元素</t>
+  </si>
+  <si>
+    <t>水元素</t>
+  </si>
+  <si>
+    <t>风元素</t>
+  </si>
+  <si>
+    <t>光元素</t>
+  </si>
+  <si>
+    <t>暗元素</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>点燃</t>
+  </si>
+  <si>
+    <t>云层</t>
+  </si>
+  <si>
+    <t>创造</t>
+  </si>
+  <si>
+    <t>回溯</t>
+  </si>
+  <si>
+    <t>睡眠</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>格斗</t>
+  </si>
+  <si>
+    <t>漂浮</t>
+  </si>
+  <si>
+    <t>波动</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>圈环</t>
+  </si>
+  <si>
+    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
+  </si>
+  <si>
+    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
+  </si>
+  <si>
+    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>下一回合无法行动。</t>
+  </si>
+  <si>
+    <t>回合结束时，受到？点伤害。</t>
+  </si>
+  <si>
+    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
+  </si>
+  <si>
+    <t>每回合开始选择一张手牌消耗。</t>
+  </si>
+  <si>
+    <t>无法行动，收到任何伤害时苏醒。当buff自然消失时，恢复所有生命值。</t>
+  </si>
+  <si>
+    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
+  </si>
+  <si>
+    <t>造成伤害减少？%，受到伤害减少？%。</t>
+  </si>
+  <si>
+    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
+  </si>
+  <si>
+    <t>受到的伤害减少？点。</t>
+  </si>
+  <si>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？倍的伤害。</t>
+  </si>
+  <si>
+    <t>当存在时，不会触发所有的元素效果。</t>
+  </si>
+  <si>
+    <t>每打出？张牌，抽？张牌。</t>
+  </si>
+  <si>
+    <t>每回合第一张进入弃牌堆的牌将返回自己的手牌。</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗一张“库洛牌”或“小樱牌”，对所有敌人造成？点伤害。战斗结束时，从卡组中选择一张卡去除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当获得该状态时，记录当前的生命值和格挡值，当buff消失时，生命值和格挡值恢复到记录前的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每打出1张“库洛牌”或“小樱牌”，给与“地元素”“火元素”“光元素”各1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每打出1张“库洛牌”或“小樱牌”，给与“水元素”“风元素”“暗元素”各1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +241,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -51,31 +269,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +392,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -184,7 +426,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,15 +601,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="C31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -376,12 +905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -390,12 +919,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>$HEAD</t>
   </si>
@@ -97,130 +97,203 @@
     <t>睡眠</t>
   </si>
   <si>
+    <t>缩小</t>
+  </si>
+  <si>
+    <t>漂浮</t>
+  </si>
+  <si>
+    <t>波动</t>
+  </si>
+  <si>
+    <t>锁定</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>圈环</t>
+  </si>
+  <si>
+    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
+  </si>
+  <si>
+    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
+  </si>
+  <si>
+    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
+  </si>
+  <si>
+    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
+    <t>回合结束时，受到？点伤害。</t>
+  </si>
+  <si>
+    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
+  </si>
+  <si>
+    <t>造成伤害减少？%，受到伤害减少？%。</t>
+  </si>
+  <si>
+    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
+  </si>
+  <si>
+    <t>受到的伤害减少？点。</t>
+  </si>
+  <si>
+    <t>每回合第一张进入弃牌堆的牌将返回自己的手牌。</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗一张“库洛牌”或“小樱牌”，对所有敌人造成？点伤害。战斗结束时，从卡组中选择一张卡去除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当获得该状态时，记录当前的生命值和格挡值，当buff消失时，生命值和格挡值恢复到记录前的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，当抽排堆和弃牌堆的数量差在？倍以内时，额外获得？点能量，抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出1张费用为0的牌，抽一张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标不是boss，则无法行动，受到任何伤害时buff消失。当buff自然消失时，恢复所有生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对敌人造成一次伤害时，获得1点力量，？点格挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出？张牌，抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与多有敌人？层虚弱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，给与所有敌人？层“光元素”。你的手牌上限加？。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，给与所有敌人？层“暗元素”，额外抽？张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>放大</t>
-  </si>
-  <si>
-    <t>缩小</t>
-  </si>
-  <si>
-    <t>格斗</t>
-  </si>
-  <si>
-    <t>漂浮</t>
-  </si>
-  <si>
-    <t>波动</t>
-  </si>
-  <si>
-    <t>锁定</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>圈环</t>
-  </si>
-  <si>
-    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
-  </si>
-  <si>
-    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
-  </si>
-  <si>
-    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>下一回合无法行动。</t>
-  </si>
-  <si>
-    <t>回合结束时，受到？点伤害。</t>
-  </si>
-  <si>
-    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
-  </si>
-  <si>
-    <t>每回合开始选择一张手牌消耗。</t>
-  </si>
-  <si>
-    <t>无法行动，收到任何伤害时苏醒。当buff自然消失时，恢复所有生命值。</t>
-  </si>
-  <si>
-    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
-  </si>
-  <si>
-    <t>造成伤害减少？%，受到伤害减少？%。</t>
-  </si>
-  <si>
-    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
-  </si>
-  <si>
-    <t>受到的伤害减少？点。</t>
-  </si>
-  <si>
-    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？倍的伤害。</t>
-  </si>
-  <si>
-    <t>当存在时，不会触发所有的元素效果。</t>
-  </si>
-  <si>
-    <t>每打出？张牌，抽？张牌。</t>
-  </si>
-  <si>
-    <t>每回合第一张进入弃牌堆的牌将返回自己的手牌。</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗一张“库洛牌”或“小樱牌”，对所有敌人造成？点伤害。战斗结束时，从卡组中选择一张卡去除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当获得该状态时，记录当前的生命值和格挡值，当buff消失时，生命值和格挡值恢复到记录前的状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每打出1张“库洛牌”或“小樱牌”，给与“地元素”“火元素”“光元素”各1次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每打出1张“库洛牌”或“小樱牌”，给与“水元素”“风元素”“暗元素”各1次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提高？倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害减少？%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂浮EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始选择一张手牌消耗。战斗结束时，额外获得一件遗物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当存在时，不会触发所有的元素效果。回合开始时下降1层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少？点，每收到1次未被格挡的伤害，获得1点敏捷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，如果目标不是boss，这回合无法行动。回合开始时降低1层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？%的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成相同伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,13 +675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -659,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -670,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -678,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -686,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -694,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -702,23 +775,23 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -726,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -734,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -742,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -750,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -758,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -766,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -774,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -782,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -790,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -798,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -806,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -814,87 +887,159 @@
         <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>60</v>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="22035" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>$HEAD</t>
   </si>
@@ -30,290 +30,267 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Power</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementalMagickPower</t>
   </si>
   <si>
     <t>元素魔法</t>
   </si>
   <si>
+    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
+  </si>
+  <si>
     <t>EnhancedMagickPower</t>
   </si>
   <si>
     <t>强化魔法</t>
   </si>
   <si>
+    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
+  </si>
+  <si>
     <t>地魔法</t>
   </si>
   <si>
+    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
+  </si>
+  <si>
     <t>水魔法</t>
   </si>
   <si>
+    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
+  </si>
+  <si>
     <t>火魔法</t>
   </si>
   <si>
+    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
+  </si>
+  <si>
     <t>风魔法</t>
   </si>
   <si>
+    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
+  </si>
+  <si>
+    <t>阳魔法</t>
+  </si>
+  <si>
+    <t>回合开始时，给与所有敌人？层“光元素”。你的手牌上限加？。</t>
+  </si>
+  <si>
+    <t>阴魔法</t>
+  </si>
+  <si>
+    <t>回合开始时，给与所有敌人？层“暗元素”，额外抽？张牌。</t>
+  </si>
+  <si>
     <t>地元素</t>
   </si>
   <si>
+    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>火元素</t>
   </si>
   <si>
+    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>水元素</t>
   </si>
   <si>
+    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>风元素</t>
   </si>
   <si>
+    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>光元素</t>
   </si>
   <si>
+    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>暗元素</t>
   </si>
   <si>
+    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
+  </si>
+  <si>
     <t>冰冻</t>
   </si>
   <si>
+    <t>回合开始时，如果目标不是boss，这回合无法行动。回合开始时降低1层。</t>
+  </si>
+  <si>
     <t>点燃</t>
   </si>
   <si>
+    <t>回合结束时，受到？点伤害。</t>
+  </si>
+  <si>
     <t>云层</t>
   </si>
   <si>
+    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
+  </si>
+  <si>
     <t>创造</t>
   </si>
   <si>
+    <t>每回合开始选择一张手牌消耗。战斗结束时，额外获得一件遗物。</t>
+  </si>
+  <si>
     <t>回溯</t>
   </si>
   <si>
+    <t>当获得该状态时，记录当前的生命值和格挡值，当buff消失时，生命值和格挡值恢复到记录前的状态。</t>
+  </si>
+  <si>
     <t>睡眠</t>
   </si>
   <si>
+    <t>如果目标不是boss，则无法行动，受到任何伤害时buff消失。当buff自然消失时，恢复所有生命值。</t>
+  </si>
+  <si>
+    <t>放大</t>
+  </si>
+  <si>
+    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
+  </si>
+  <si>
+    <t>放大EX</t>
+  </si>
+  <si>
+    <t>造成伤害提高？倍。</t>
+  </si>
+  <si>
     <t>缩小</t>
   </si>
   <si>
+    <t>造成伤害减少？%，受到伤害减少？%。</t>
+  </si>
+  <si>
+    <t>缩小EX</t>
+  </si>
+  <si>
+    <t>受到伤害减少？%。</t>
+  </si>
+  <si>
+    <t>格斗</t>
+  </si>
+  <si>
+    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
+  </si>
+  <si>
+    <t>格斗EX</t>
+  </si>
+  <si>
+    <t>当对敌人造成一次伤害时，获得1点力量，？点格挡。</t>
+  </si>
+  <si>
     <t>漂浮</t>
   </si>
   <si>
+    <t>受到的伤害减少？点。</t>
+  </si>
+  <si>
+    <t>漂浮EX</t>
+  </si>
+  <si>
+    <t>受到的伤害减少？点，每收到1次未被格挡的伤害，获得1点敏捷。</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>每打出？张牌，抽？张牌。</t>
+  </si>
+  <si>
+    <t>冲刺EX</t>
+  </si>
+  <si>
+    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与多有敌人？层虚弱。</t>
+  </si>
+  <si>
     <t>波动</t>
   </si>
   <si>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？%的伤害。</t>
+  </si>
+  <si>
+    <t>波动EX</t>
+  </si>
+  <si>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成相同伤害。</t>
+  </si>
+  <si>
+    <t>双生</t>
+  </si>
+  <si>
+    <t>每回合使用的第1张牌会被额外打出1次。</t>
+  </si>
+  <si>
+    <t>双生EX</t>
+  </si>
+  <si>
+    <t>你所有使用的牌都会被额外打出一次。</t>
+  </si>
+  <si>
     <t>锁定</t>
   </si>
   <si>
-    <t>冲刺</t>
+    <t>当存在时，触发元素效果时，不会消耗其层数。回合开始时下降1层。</t>
   </si>
   <si>
     <t>圈环</t>
   </si>
   <si>
-    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
-  </si>
-  <si>
-    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
-  </si>
-  <si>
-    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
-  </si>
-  <si>
-    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>回合结束时，受到？点伤害。</t>
-  </si>
-  <si>
-    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
-  </si>
-  <si>
-    <t>造成伤害减少？%，受到伤害减少？%。</t>
-  </si>
-  <si>
-    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
-  </si>
-  <si>
-    <t>受到的伤害减少？点。</t>
-  </si>
-  <si>
     <t>每回合第一张进入弃牌堆的牌将返回自己的手牌。</t>
   </si>
   <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>回合开始时，当抽排堆和弃牌堆的数量差在？倍以内时，额外获得？点能量，抽？张牌。</t>
+  </si>
+  <si>
+    <t>双翼</t>
+  </si>
+  <si>
+    <t>每打出1张费用为0的牌，抽一张牌。</t>
+  </si>
+  <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗一张“库洛牌”或“小樱牌”，对所有敌人造成？点伤害。战斗结束时，从卡组中选择一张卡去除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当获得该状态时，记录当前的生命值和格挡值，当buff消失时，生命值和格挡值恢复到记录前的状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阴魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，当抽排堆和弃牌堆的数量差在？倍以内时，额外获得？点能量，抽？张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双翼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出1张费用为0的牌，抽一张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果目标不是boss，则无法行动，受到任何伤害时buff消失。当buff自然消失时，恢复所有生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对敌人造成一次伤害时，获得1点力量，？点格挡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出？张牌，抽？张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与多有敌人？层虚弱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，给与所有敌人？层“光元素”。你的手牌上限加？。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，给与所有敌人？层“暗元素”，额外抽？张牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放大EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害提高？倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害减少？%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漂浮EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合开始选择一张手牌消耗。战斗结束时，额外获得一件遗物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当存在时，不会触发所有的元素效果。回合开始时下降1层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害减少？点，每收到1次未被格挡的伤害，获得1点敏捷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，如果目标不是boss，这回合无法行动。回合开始时降低1层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？%的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波动EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成相同伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,16 +301,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -341,52 +648,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -669,62 +1273,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -732,240 +1337,240 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="16" spans="3:4">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    <row r="17" spans="3:4">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="18" spans="3:4">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="19" spans="3:4">
+      <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>65</v>
@@ -974,105 +1579,129 @@
     <row r="32" spans="2:4">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="C39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>51</v>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="12645"/>
@@ -192,9 +192,6 @@
     <t>格斗EX</t>
   </si>
   <si>
-    <t>当对敌人造成一次伤害时，获得1点力量，？点格挡。</t>
-  </si>
-  <si>
     <t>漂浮</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>漂浮EX</t>
   </si>
   <si>
-    <t>受到的伤害减少？点，每收到1次未被格挡的伤害，获得1点敏捷。</t>
-  </si>
-  <si>
     <t>冲刺</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
   </si>
   <si>
     <t>冲刺EX</t>
-  </si>
-  <si>
-    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与多有敌人？层虚弱。</t>
   </si>
   <si>
     <t>波动</t>
@@ -290,6 +281,18 @@
   </si>
   <si>
     <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与所有敌人？层虚弱。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少？点，每打出1张牌，获得？点格挡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对敌人造成一次伤害时，获得1层“强化魔法”。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +695,10 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -901,7 +904,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -954,141 +957,141 @@
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>58</v>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3"/>
       <c r="C37" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3"/>
       <c r="C38" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22035" windowHeight="12645"/>
+    <workbookView windowWidth="22155" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>$HEAD</t>
   </si>
@@ -42,7 +42,7 @@
     <t>元素魔法</t>
   </si>
   <si>
-    <t>每层“元素魔法”增加元素类攻击的伤害？%。</t>
+    <t>每层“元素魔法”增加元素类卡片的伤害5%。</t>
   </si>
   <si>
     <t>EnhancedMagickPower</t>
@@ -51,103 +51,97 @@
     <t>强化魔法</t>
   </si>
   <si>
-    <t>每层“强化魔法”增加物理类攻击的伤害？%。</t>
+    <t>每层“强化魔法”增加物理类卡片的伤害5%。</t>
   </si>
   <si>
     <t>地魔法</t>
   </si>
   <si>
-    <t>每当你给与敌人“地元素”状态时，额外给与？层“地元素”，获得？点格挡。</t>
+    <t>每当你对敌人造成1次未被格挡的伤害时，给与1层“地元素”。从卡牌中给与敌人“地元素”时，额外给与2层。</t>
   </si>
   <si>
     <t>水魔法</t>
   </si>
   <si>
-    <t>每当你给与敌人“水元素”状态时，额外给与？层“水元素”，恢复？生命。</t>
+    <t>每当你对敌人造成1次未被格挡的伤害时，给与1层“水元素”。从卡牌中给与敌人“水元素”时，额外给与2层。</t>
   </si>
   <si>
     <t>火魔法</t>
   </si>
   <si>
-    <t>每当你给与敌人“火元素”状态时，额外给与？层“火元素”，给与目标？层“点燃”。</t>
+    <t>每当你对敌人造成1次未被格挡的伤害时，给与1层“火元素”。从卡牌中给与敌人“火元素”时，额外给与2层。</t>
   </si>
   <si>
     <t>风魔法</t>
   </si>
   <si>
-    <t>每当你给与敌人“风元素”状态时，额外给与？层“风元素”，抽？张牌。</t>
+    <t>每当你对敌人造成1次未被格挡的伤害时，给与1层“风元素”。从卡牌中给与敌人“风元素”时，额外给与2层。</t>
   </si>
   <si>
     <t>阳魔法</t>
   </si>
   <si>
-    <t>回合开始时，给与所有敌人？层“光元素”。你的手牌上限加？。</t>
+    <t>回合开始时，给与所有敌人1层“光元素”。你的手牌上限加1。</t>
   </si>
   <si>
     <t>阴魔法</t>
   </si>
   <si>
-    <t>回合开始时，给与所有敌人？层“暗元素”，额外抽？张牌。</t>
+    <t>回合开始时，给与所有敌人1层“暗元素”，额外抽1张牌。</t>
   </si>
   <si>
     <t>地元素</t>
   </si>
   <si>
-    <t>受到地元素的标记，能被特殊卡牌触发效果。</t>
+    <t>受到地元素的标记，能被特殊卡牌触发效果。被触发时，获得4点格挡。</t>
+  </si>
+  <si>
+    <t>水元素</t>
+  </si>
+  <si>
+    <t>受到水元素的标记，能被特殊卡牌触发效果。被触发时，获得1点能量。</t>
   </si>
   <si>
     <t>火元素</t>
   </si>
   <si>
-    <t>受到水元素的标记，能被特殊卡牌触发效果。</t>
-  </si>
-  <si>
-    <t>水元素</t>
-  </si>
-  <si>
-    <t>受到火元素的标记，能被特殊卡牌触发效果。</t>
+    <t>受到火元素的标记，能被特殊卡牌触发效果。被触发时，造成5点伤害。</t>
   </si>
   <si>
     <t>风元素</t>
   </si>
   <si>
-    <t>受到风元素的标记，能被特殊卡牌触发效果。</t>
+    <t>受到风元素的标记，能被特殊卡牌触发效果。被触发时，抽1张牌。</t>
   </si>
   <si>
     <t>光元素</t>
   </si>
   <si>
-    <t>受到光元素的标记，能被特殊卡牌触发效果。</t>
+    <t>受到光元素的标记，能被特殊卡牌触发效果。被触发时，给与1层易伤。</t>
   </si>
   <si>
     <t>暗元素</t>
   </si>
   <si>
-    <t>受到暗元素的标记，能被特殊卡牌触发效果。</t>
+    <t>受到暗元素的标记，能被特殊卡牌触发效果。被触发时，给与1层虚弱。</t>
   </si>
   <si>
     <t>冰冻</t>
   </si>
   <si>
-    <t>回合开始时，如果目标不是boss，这回合无法行动。回合开始时降低1层。</t>
-  </si>
-  <si>
-    <t>点燃</t>
-  </si>
-  <si>
-    <t>回合结束时，受到？点伤害。</t>
+    <t>回合开始时，如果目标不是boss，这回合无法行动。回合结束时下降1层。</t>
   </si>
   <si>
     <t>云层</t>
   </si>
   <si>
-    <t>下一张“雨”“雪”“岚”“雷”将被打出两次。</t>
+    <t>下1张“雨”“雪”“岚”“雷”将被打出2次。</t>
   </si>
   <si>
     <t>创造</t>
   </si>
   <si>
-    <t>每回合开始选择一张手牌消耗。战斗结束时，额外获得一件遗物。</t>
+    <t>每回合开始选择1张手牌消耗。战斗结束时，额外获得1件遗物。</t>
   </si>
   <si>
     <t>回溯</t>
@@ -159,61 +153,73 @@
     <t>睡眠</t>
   </si>
   <si>
+    <t>如果目标不是boss，则无法行动，受到任何伤害时buff消失。当buff自然消失时，恢复所有生命值。</t>
+  </si>
+  <si>
     <t>放大</t>
   </si>
   <si>
-    <t>造成伤害提高？倍，受到伤害提高？倍。</t>
+    <t>造成伤害提高20%，受到伤害提高15%。</t>
   </si>
   <si>
     <t>放大EX</t>
   </si>
   <si>
-    <t>造成伤害提高？倍。</t>
+    <t>造成伤害提高10%。</t>
   </si>
   <si>
     <t>缩小</t>
   </si>
   <si>
-    <t>造成伤害减少？%，受到伤害减少？%。</t>
+    <t>造成伤害减少20%，受到伤害减少15%。</t>
   </si>
   <si>
     <t>缩小EX</t>
   </si>
   <si>
-    <t>受到伤害减少？%。</t>
+    <t>受到伤害减少10%。</t>
   </si>
   <si>
     <t>格斗</t>
   </si>
   <si>
-    <t>当对敌人造成一次大于？的伤害时，获得1点力量。</t>
+    <t>当对敌人造成1次大于等于10的伤害时，获得1点力量。</t>
   </si>
   <si>
     <t>格斗EX</t>
   </si>
   <si>
+    <t>当对敌人造成一次伤害时，获得1层“强化魔法”。</t>
+  </si>
+  <si>
     <t>漂浮</t>
   </si>
   <si>
-    <t>受到的伤害减少？点。</t>
+    <t>受到的伤害减少2点。</t>
   </si>
   <si>
     <t>漂浮EX</t>
   </si>
   <si>
+    <t>受到的伤害减少3点，每打出1张牌，获得1点格挡。</t>
+  </si>
+  <si>
     <t>冲刺</t>
   </si>
   <si>
-    <t>每打出？张牌，抽？张牌。</t>
+    <t>每打出4张牌，抽1张牌。</t>
   </si>
   <si>
     <t>冲刺EX</t>
   </si>
   <si>
+    <t>每打出3张攻击牌，给与所有敌人1层易伤。每打出3张技能牌，给与所有敌人1层虚弱。</t>
+  </si>
+  <si>
     <t>波动</t>
   </si>
   <si>
-    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害？%的伤害。</t>
+    <t>当打出的库洛牌或小樱牌对敌人造成伤害时，对所有其他敌人造成该次伤害25%的伤害。</t>
   </si>
   <si>
     <t>波动EX</t>
@@ -231,76 +237,62 @@
     <t>双生EX</t>
   </si>
   <si>
-    <t>你所有使用的牌都会被额外打出一次。</t>
+    <t>你所有使用的牌都会被额外打出1次。</t>
+  </si>
+  <si>
+    <t>圈环</t>
+  </si>
+  <si>
+    <t>每回合第1张进入弃牌堆的牌将返回自己的手牌。</t>
+  </si>
+  <si>
+    <t>圈环EX</t>
+  </si>
+  <si>
+    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
   </si>
   <si>
     <t>锁定</t>
   </si>
   <si>
-    <t>当存在时，触发元素效果时，不会消耗其层数。回合开始时下降1层。</t>
-  </si>
-  <si>
-    <t>每回合第一张进入弃牌堆的牌将返回自己的手牌。</t>
+    <t>当存在时，触发元素效果时，不会消耗其层数。回合结束时下降1层。</t>
   </si>
   <si>
     <t>平衡</t>
   </si>
   <si>
-    <t>回合开始时，当抽排堆和弃牌堆的数量差在？倍以内时，额外获得？点能量，抽？张牌。</t>
+    <t>回合开始时，当抽排堆和弃牌堆的数量比在2倍内时，额外获得1点能量，抽2张牌。</t>
   </si>
   <si>
     <t>双翼</t>
   </si>
   <si>
-    <t>每打出1张费用为0的牌，抽一张牌。</t>
+    <t>每打出1张费用为0的牌，抽1张牌。</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗一张“库洛牌”或“小樱牌”，对所有敌人造成？点伤害。战斗结束时，从卡组中选择一张卡去除。</t>
+    <t>你的所有“库洛牌”和“小樱牌”消耗变为0，且被打出时被消耗。每消耗1张“库洛牌”或“小樱牌”，对所有敌人造成4点伤害。战斗结束时，从卡组中选择1张卡去除。</t>
   </si>
   <si>
     <t>封印</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果目标不是boss，则无法行动，受到任何伤害时buff消失。当buff自然消失时，恢复所有生命值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在战斗结束后额外选一次牌。</t>
-  </si>
-  <si>
-    <t>圈环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圈环EX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择1张牌，回合开始时如果这张牌存在于抽排堆或弃牌堆，将这张牌加入手牌。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每打出？张攻击牌，给与所有敌人？层易伤。每打出？张技能牌，给与所有敌人？层虚弱。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害减少？点，每打出1张牌，获得？点格挡。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对敌人造成一次伤害时，获得1层“强化魔法”。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在战斗结束后额外选1次牌。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,29 +308,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,18 +654,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -365,45 +915,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -686,22 +1288,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -741,7 +1344,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -752,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -763,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="3:4">
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -771,7 +1374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="3:4">
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
@@ -779,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="3:4">
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
@@ -787,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="3:4">
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,7 +1398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="3:4">
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
@@ -803,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="3:4">
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -811,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="3:4">
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
@@ -819,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="3:4">
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
@@ -827,7 +1430,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -835,7 +1439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="3:4">
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
@@ -843,7 +1447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="3:4">
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
@@ -851,7 +1455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="3:4">
       <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
@@ -859,7 +1463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="3:4">
       <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
@@ -867,7 +1471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="3:4">
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
@@ -875,7 +1479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="3:4">
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
@@ -883,7 +1487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
@@ -891,240 +1495,238 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:4">
+      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>82</v>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="4" t="s">
         <v>56</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>87</v>
+        <v>66</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>71</v>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3"/>
-      <c r="C37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>74</v>
+      <c r="C37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3"/>
-      <c r="C38" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>86</v>
+      <c r="C38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22155" windowHeight="12645"/>
+    <workbookView windowWidth="13380" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,13 @@
     <t>漂浮</t>
   </si>
   <si>
-    <t>受到的伤害减少2点。</t>
+    <t>受到的伤害减少1点。</t>
   </si>
   <si>
     <t>漂浮EX</t>
   </si>
   <si>
-    <t>受到的伤害减少3点，每打出1张牌，获得1点格挡。</t>
+    <t>受到的伤害减少2点，每打出1张牌，获得1点格挡。</t>
   </si>
   <si>
     <t>冲刺</t>
@@ -287,12 +287,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,9 +302,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,7 +346,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -328,6 +357,29 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,13 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -354,72 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -429,28 +408,42 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,6 +454,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,13 +496,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,133 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +645,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,6 +674,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,26 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,21 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +765,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -936,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1">
@@ -1301,7 +1294,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\KinomotoSakuraMod\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90052DC6-6988-4F91-BD31-F108DDF23A07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13380" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>$HEAD</t>
   </si>
@@ -42,18 +48,12 @@
     <t>元素魔法</t>
   </si>
   <si>
-    <t>每层“元素魔法”增加元素类卡片的伤害5%。</t>
-  </si>
-  <si>
     <t>EnhancedMagickPower</t>
   </si>
   <si>
     <t>强化魔法</t>
   </si>
   <si>
-    <t>每层“强化魔法”增加物理类卡片的伤害5%。</t>
-  </si>
-  <si>
     <t>地魔法</t>
   </si>
   <si>
@@ -280,19 +280,21 @@
   </si>
   <si>
     <t>在战斗结束后额外选1次牌。</t>
+  </si>
+  <si>
+    <t>每层“元素魔法”增加元素类卡片的所有效果5%，超出部分向下取整。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每层“强化魔法”增加物理类卡片的所有效果5%，超出部分向下取整。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,344 +304,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -647,356 +347,52 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1281,25 +677,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1309,15 +707,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,389 +735,383 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="3" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="3" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3"/>
-      <c r="C36" s="7" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="3"/>
-      <c r="C37" s="7" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="9" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\KinomotoSakuraMod\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90052DC6-6988-4F91-BD31-F108DDF23A07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>$HEAD</t>
   </si>
@@ -42,18 +36,24 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ElementalMagickPower</t>
+    <t>ElementMagickPower</t>
   </si>
   <si>
     <t>元素魔法</t>
   </si>
   <si>
-    <t>EnhancedMagickPower</t>
+    <t>每层“元素魔法”增加元素类卡片的所有效果5%，超出部分向下取整。</t>
+  </si>
+  <si>
+    <t>EnhancementMagickPower</t>
   </si>
   <si>
     <t>强化魔法</t>
   </si>
   <si>
+    <t>每层“强化魔法”增加物理类卡片的所有效果5%，超出部分向下取整。</t>
+  </si>
+  <si>
     <t>地魔法</t>
   </si>
   <si>
@@ -280,21 +280,19 @@
   </si>
   <si>
     <t>在战斗结束后额外选1次牌。</t>
-  </si>
-  <si>
-    <t>每层“元素魔法”增加元素类卡片的所有效果5%，超出部分向下取整。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每层“强化魔法”增加物理类卡片的所有效果5%，超出部分向下取整。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,36 +308,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -347,18 +654,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -366,33 +915,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -677,27 +1270,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +1309,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,383 +1329,389 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
       <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
       <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
       <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
       <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
       <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
       <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
       <c r="C41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
       <c r="C42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Powers.xlsx
+++ b/Excel/Powers.xlsx
@@ -42,7 +42,7 @@
     <t>元素魔法</t>
   </si>
   <si>
-    <t>每层“元素魔法”增加元素类卡片的所有效果5%，超出部分向下取整。</t>
+    <t>每当你用“元素卡”时，获得1层。每层“元素魔法”增加元素类卡片的所有效果5%，超出部分向下取整。</t>
   </si>
   <si>
     <t>EnhancementMagickPower</t>
@@ -51,7 +51,7 @@
     <t>强化魔法</t>
   </si>
   <si>
-    <t>每层“强化魔法”增加物理类卡片的所有效果5%，超出部分向下取整。</t>
+    <t>每当你用“物理卡”时，获得1层。每层“强化魔法”增加物理类卡片的所有效果5%，超出部分向下取整。</t>
   </si>
   <si>
     <t>地魔法</t>
@@ -189,7 +189,7 @@
     <t>格斗EX</t>
   </si>
   <si>
-    <t>当对敌人造成一次伤害时，获得1层“强化魔法”。</t>
+    <t>当对敌人造成一次伤害时，额外获得1层“强化魔法”。</t>
   </si>
   <si>
     <t>漂浮</t>
@@ -255,7 +255,7 @@
     <t>锁定</t>
   </si>
   <si>
-    <t>当存在时，触发元素效果时，不会消耗其层数。回合结束时下降1层。</t>
+    <t>当存在时，触发元素效果时，不会消耗元素层数。回合结束时下降1层。</t>
   </si>
   <si>
     <t>平衡</t>
@@ -288,11 +288,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +304,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,13 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -331,6 +352,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -339,10 +374,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,6 +390,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -362,20 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -384,66 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -451,6 +437,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,6 +454,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,175 +526,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +663,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -689,15 +700,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -714,26 +727,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,7 +765,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,124 +774,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -921,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
@@ -1283,7 +1276,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
